--- a/Estudio de Salarios.xlsx
+++ b/Estudio de Salarios.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\J.Francisco\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\J.Francisco\Desktop\01-RefaccionariaNVW\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>Salarios</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>Salarios Generales</t>
-  </si>
-  <si>
-    <t>% En Base al Salario Geografico</t>
   </si>
   <si>
     <t>Salario x Mes</t>
@@ -229,7 +226,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -407,19 +404,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -446,7 +430,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -483,7 +467,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -498,22 +482,7 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -559,9 +528,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -898,21 +864,21 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="30">
         <f>AVERAGE(D9,E9)</f>
         <v>29017</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="34"/>
+      <c r="E7" s="29"/>
     </row>
     <row r="8" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
-      <c r="B8" s="36"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="31"/>
       <c r="D8" s="4" t="s">
         <v>19</v>
       </c>
@@ -924,8 +890,8 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
-      <c r="B9" s="37"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="32"/>
       <c r="D9" s="3">
         <v>32905</v>
       </c>
@@ -938,28 +904,28 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="30">
         <f>AVERAGE(D12,E12,F12,G12,H12,I12,J12,K12,L12)</f>
         <v>24055.666666666668</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="43"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="38"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39"/>
-      <c r="B11" s="36"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="31"/>
       <c r="D11" s="20" t="s">
         <v>9</v>
       </c>
@@ -992,8 +958,8 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
-      <c r="B12" s="37"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="32"/>
       <c r="D12" s="6">
         <v>25973</v>
       </c>
@@ -1027,18 +993,18 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="30">
         <f>AVERAGE(D15,E15,F15)</f>
         <v>27804.555555555558</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="29"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -1047,8 +1013,8 @@
       <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
-      <c r="B14" s="36"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="31"/>
       <c r="D14" s="4" t="s">
         <v>19</v>
       </c>
@@ -1069,8 +1035,8 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
-      <c r="B15" s="37"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="32"/>
       <c r="D15" s="3">
         <v>32905</v>
       </c>
@@ -1098,7 +1064,7 @@
       </c>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1109,20 +1075,20 @@
         <v>26453</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="11">
         <v>23352</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>1</v>
       </c>
@@ -1130,28 +1096,23 @@
         <v>24</v>
       </c>
       <c r="C23" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="E23" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="F23" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="27"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J23" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
@@ -1168,22 +1129,16 @@
         <f>C25*D25</f>
         <v>160</v>
       </c>
-      <c r="F25" s="23">
-        <f t="shared" ref="F25:F31" si="0">(B$20*100)/B25</f>
-        <v>62.975647905935652</v>
-      </c>
-      <c r="G25" s="24"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="18">
-        <f t="shared" ref="I25:I31" si="1">(F$25/100)*B25</f>
+      <c r="F25" s="18">
+        <f>(B$20*B25)/B$25</f>
         <v>23352</v>
       </c>
-      <c r="J25" s="44">
-        <f t="shared" ref="J25:J31" si="2">I25/E25</f>
+      <c r="G25" s="23">
+        <f>F25/E25</f>
         <v>145.94999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
@@ -1197,25 +1152,19 @@
         <v>8</v>
       </c>
       <c r="E26" s="17">
-        <f t="shared" ref="E26:E31" si="3">C26*D26</f>
+        <f t="shared" ref="E26:E31" si="0">C26*D26</f>
         <v>160</v>
       </c>
-      <c r="F26" s="23">
-        <f t="shared" si="0"/>
-        <v>82.431430689399562</v>
-      </c>
-      <c r="G26" s="24"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="18">
-        <f t="shared" si="1"/>
+      <c r="F26" s="18">
+        <f t="shared" ref="F26:F31" si="1">(B$20*B26)/B$25</f>
         <v>17840.371295272511</v>
       </c>
-      <c r="J26" s="44">
-        <f t="shared" si="2"/>
+      <c r="G26" s="23">
+        <f>F26/E26</f>
         <v>111.5023205954532</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>4</v>
       </c>
@@ -1229,25 +1178,19 @@
         <v>8</v>
       </c>
       <c r="E27" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="F27" s="23">
-        <f t="shared" si="0"/>
-        <v>80.476961781024912</v>
-      </c>
-      <c r="G27" s="24"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="18">
+      <c r="F27" s="18">
         <f t="shared" si="1"/>
         <v>18273.643752865348</v>
       </c>
-      <c r="J27" s="44">
-        <f t="shared" si="2"/>
+      <c r="G27" s="23">
+        <f>F27/E27</f>
         <v>114.21027345540843</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>5</v>
       </c>
@@ -1261,25 +1204,19 @@
         <v>8</v>
       </c>
       <c r="E28" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="F28" s="23">
-        <f t="shared" si="0"/>
-        <v>97.07482684955356</v>
-      </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="18">
+      <c r="F28" s="18">
         <f t="shared" si="1"/>
         <v>15149.21404061379</v>
       </c>
-      <c r="J28" s="44">
-        <f t="shared" si="2"/>
+      <c r="G28" s="23">
+        <f>F28/E28</f>
         <v>94.682587753836188</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14" t="s">
         <v>6</v>
       </c>
@@ -1293,25 +1230,19 @@
         <v>8</v>
       </c>
       <c r="E29" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="F29" s="23">
-        <f t="shared" si="0"/>
-        <v>83.986223842420088</v>
-      </c>
-      <c r="G29" s="24"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="18">
+      <c r="F29" s="18">
         <f t="shared" si="1"/>
         <v>17510.101807394622</v>
       </c>
-      <c r="J29" s="44">
-        <f t="shared" si="2"/>
+      <c r="G29" s="23">
+        <f>F29/E29</f>
         <v>109.43813629621638</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
@@ -1325,25 +1256,19 @@
         <v>8</v>
       </c>
       <c r="E30" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="F30" s="23">
-        <f t="shared" si="0"/>
-        <v>107.77182942588148</v>
-      </c>
-      <c r="G30" s="24"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="18">
+      <c r="F30" s="18">
         <f t="shared" si="1"/>
         <v>13645.563388258137</v>
       </c>
-      <c r="J30" s="44">
-        <f t="shared" si="2"/>
+      <c r="G30" s="23">
+        <f>F30/E30</f>
         <v>85.284771176613361</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>18</v>
       </c>
@@ -1357,26 +1282,20 @@
         <v>8</v>
       </c>
       <c r="E31" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="F31" s="23">
-        <f t="shared" si="0"/>
-        <v>88.277322042868491</v>
-      </c>
-      <c r="G31" s="24"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="18">
+      <c r="F31" s="18">
         <f t="shared" si="1"/>
         <v>16658.948140557157</v>
       </c>
-      <c r="J31" s="44">
-        <f t="shared" si="2"/>
+      <c r="G31" s="23">
+        <f>F31/E31</f>
         <v>104.11842587848223</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="9">
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="B7:B9"/>
@@ -1386,14 +1305,6 @@
     <mergeCell ref="D10:L10"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
